--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5963 L5603/FT_L5963 L5603.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5963 L5603/FT_L5963 L5603.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5963 L5603\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEDD579-6D91-4767-8564-D192863C0986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A610BBF6-5659-4F9E-BA51-E51987F6C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="192">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -143,13 +143,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[輸出欄位]戶號</t>
   </si>
   <si>
@@ -708,6 +701,9 @@
   <si>
     <t>連結至【L5962面催明細資料查詢】</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1303,7 @@
   <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1384,16 +1380,16 @@
     </row>
     <row r="2" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>26</v>
@@ -1418,27 +1414,27 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>27</v>
@@ -1463,33 +1459,33 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -1508,27 +1504,27 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>30</v>
@@ -1553,36 +1549,36 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>12</v>
@@ -1600,36 +1596,36 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -1647,36 +1643,36 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
@@ -1694,36 +1690,36 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>12</v>
@@ -1741,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1749,30 +1745,30 @@
         <v>23</v>
       </c>
       <c r="Q9" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>12</v>
@@ -1790,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1798,30 +1794,30 @@
         <v>23</v>
       </c>
       <c r="Q10" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>12</v>
@@ -1839,36 +1835,36 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
@@ -1886,36 +1882,36 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
@@ -1933,36 +1929,36 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -1980,36 +1976,36 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -2027,36 +2023,36 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -2074,36 +2070,36 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -2121,36 +2117,36 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -2168,36 +2164,36 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
@@ -2215,36 +2211,36 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -2262,36 +2258,36 @@
         <v>16</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>12</v>
@@ -2309,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2317,30 +2313,30 @@
         <v>23</v>
       </c>
       <c r="Q21" s="12">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>12</v>
@@ -2358,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>23</v>
@@ -2369,25 +2365,25 @@
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -2405,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>23</v>
@@ -2416,25 +2412,25 @@
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -2452,7 +2448,7 @@
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
@@ -2463,25 +2459,25 @@
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -2499,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>23</v>
@@ -2510,25 +2506,25 @@
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -2546,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>23</v>
@@ -2557,25 +2553,25 @@
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -2593,7 +2589,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>23</v>
@@ -2604,25 +2600,25 @@
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -2640,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>23</v>
@@ -2651,25 +2647,25 @@
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -2687,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>23</v>
@@ -2698,25 +2694,25 @@
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>12</v>
@@ -2734,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>23</v>
@@ -2745,25 +2741,25 @@
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>12</v>
@@ -2781,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>23</v>
@@ -2792,25 +2788,25 @@
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
@@ -2828,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>23</v>
@@ -2839,25 +2835,25 @@
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
@@ -2875,7 +2871,7 @@
         <v>16</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>23</v>
@@ -2886,25 +2882,25 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2922,7 +2918,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>23</v>
@@ -2933,25 +2929,25 @@
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -2969,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>23</v>
@@ -2980,25 +2976,25 @@
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -3016,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>23</v>
@@ -3027,25 +3023,25 @@
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -3063,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>23</v>
@@ -3074,25 +3070,25 @@
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -3110,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>23</v>
@@ -3121,25 +3117,25 @@
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -3157,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>23</v>
@@ -3168,22 +3164,22 @@
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -3201,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -3212,22 +3208,22 @@
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -3245,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>23</v>
@@ -3256,22 +3252,22 @@
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -3289,7 +3285,7 @@
         <v>16</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>23</v>
@@ -3300,22 +3296,22 @@
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -3333,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>23</v>
@@ -3344,25 +3340,25 @@
     </row>
     <row r="44" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>12</v>
@@ -3380,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -3391,22 +3387,22 @@
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -3424,7 +3420,7 @@
         <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>23</v>
@@ -3435,22 +3431,22 @@
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
@@ -3468,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>23</v>
@@ -3479,22 +3475,22 @@
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -3512,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>23</v>
@@ -3523,22 +3519,22 @@
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
@@ -3556,7 +3552,7 @@
         <v>16</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>23</v>
@@ -3567,22 +3563,22 @@
     </row>
     <row r="49" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -3600,7 +3596,7 @@
         <v>16</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -3611,25 +3607,25 @@
     </row>
     <row r="50" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -3647,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>23</v>
@@ -3658,25 +3654,25 @@
     </row>
     <row r="51" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>12</v>
@@ -3694,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>23</v>
@@ -3705,25 +3701,25 @@
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="G52" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>12</v>
@@ -3741,7 +3737,7 @@
         <v>16</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
@@ -3754,25 +3750,25 @@
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>12</v>
@@ -3790,7 +3786,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -3801,25 +3797,25 @@
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>12</v>
@@ -3837,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>23</v>
@@ -3848,25 +3844,25 @@
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -3884,7 +3880,7 @@
         <v>16</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>23</v>
@@ -3895,25 +3891,25 @@
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -3931,7 +3927,7 @@
         <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>23</v>
@@ -3942,25 +3938,25 @@
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -3978,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>23</v>
@@ -3989,25 +3985,25 @@
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -4025,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -4036,25 +4032,25 @@
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -4072,7 +4068,7 @@
         <v>16</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>23</v>
@@ -4083,25 +4079,25 @@
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -4119,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>23</v>
@@ -4130,25 +4126,25 @@
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -4166,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>23</v>
@@ -4177,25 +4173,25 @@
     </row>
     <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -4213,7 +4209,7 @@
         <v>16</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>23</v>
@@ -4224,25 +4220,25 @@
     </row>
     <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>12</v>
@@ -4260,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>23</v>
@@ -4271,25 +4267,25 @@
     </row>
     <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -4307,7 +4303,7 @@
         <v>16</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>23</v>
@@ -4318,25 +4314,25 @@
     </row>
     <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -4354,7 +4350,7 @@
         <v>16</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>23</v>
@@ -4365,25 +4361,25 @@
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -4401,7 +4397,7 @@
         <v>16</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>23</v>
@@ -4412,25 +4408,25 @@
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>12</v>
@@ -4448,7 +4444,7 @@
         <v>16</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>23</v>
@@ -4459,25 +4455,25 @@
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>12</v>
@@ -4495,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>23</v>
@@ -4506,25 +4502,25 @@
     </row>
     <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -4542,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>23</v>
@@ -4553,25 +4549,25 @@
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -4589,7 +4585,7 @@
         <v>16</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>23</v>
@@ -4600,22 +4596,22 @@
     </row>
     <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -4633,7 +4629,7 @@
         <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>23</v>
@@ -4644,22 +4640,22 @@
     </row>
     <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -4677,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>23</v>
@@ -4688,22 +4684,22 @@
     </row>
     <row r="73" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -4721,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>23</v>
@@ -4732,22 +4728,22 @@
     </row>
     <row r="74" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -4765,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>23</v>
@@ -4776,25 +4772,25 @@
     </row>
     <row r="75" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -4812,7 +4808,7 @@
         <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>23</v>
@@ -4823,22 +4819,22 @@
     </row>
     <row r="76" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -4856,7 +4852,7 @@
         <v>16</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>23</v>
@@ -4867,22 +4863,22 @@
     </row>
     <row r="77" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -4900,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>23</v>
@@ -4911,22 +4907,22 @@
     </row>
     <row r="78" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -4944,7 +4940,7 @@
         <v>16</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>23</v>
@@ -4955,22 +4951,22 @@
     </row>
     <row r="79" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>12</v>
@@ -4988,7 +4984,7 @@
         <v>16</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>23</v>
@@ -4999,22 +4995,22 @@
     </row>
     <row r="80" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
@@ -5032,7 +5028,7 @@
         <v>16</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>23</v>
@@ -5043,25 +5039,25 @@
     </row>
     <row r="81" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -5079,7 +5075,7 @@
         <v>16</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>23</v>
@@ -5090,25 +5086,25 @@
     </row>
     <row r="82" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -5126,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>23</v>
@@ -5137,25 +5133,25 @@
     </row>
     <row r="83" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>12</v>
@@ -5173,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
@@ -5186,25 +5182,25 @@
     </row>
     <row r="84" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -5222,7 +5218,7 @@
         <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>23</v>
@@ -5233,25 +5229,25 @@
     </row>
     <row r="85" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -5269,7 +5265,7 @@
         <v>16</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>23</v>
@@ -5280,25 +5276,25 @@
     </row>
     <row r="86" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -5316,7 +5312,7 @@
         <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>23</v>
@@ -5327,25 +5323,25 @@
     </row>
     <row r="87" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -5363,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>23</v>
@@ -5374,25 +5370,25 @@
     </row>
     <row r="88" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -5410,7 +5406,7 @@
         <v>16</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>23</v>
@@ -5421,25 +5417,25 @@
     </row>
     <row r="89" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -5457,7 +5453,7 @@
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>23</v>
@@ -5468,25 +5464,25 @@
     </row>
     <row r="90" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -5504,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>23</v>
@@ -5515,25 +5511,25 @@
     </row>
     <row r="91" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -5551,7 +5547,7 @@
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>23</v>
@@ -5562,25 +5558,25 @@
     </row>
     <row r="92" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -5598,7 +5594,7 @@
         <v>16</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>23</v>
@@ -5609,25 +5605,25 @@
     </row>
     <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -5645,7 +5641,7 @@
         <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>23</v>
@@ -5656,25 +5652,25 @@
     </row>
     <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -5692,7 +5688,7 @@
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>23</v>
@@ -5703,25 +5699,25 @@
     </row>
     <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -5739,7 +5735,7 @@
         <v>16</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>23</v>
@@ -5750,25 +5746,25 @@
     </row>
     <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -5786,7 +5782,7 @@
         <v>16</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>23</v>
@@ -5797,25 +5793,25 @@
     </row>
     <row r="97" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -5833,7 +5829,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>23</v>
@@ -5844,25 +5840,25 @@
     </row>
     <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -5880,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>23</v>
@@ -5891,25 +5887,25 @@
     </row>
     <row r="99" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -5927,7 +5923,7 @@
         <v>16</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>23</v>
@@ -5938,25 +5934,25 @@
     </row>
     <row r="100" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
@@ -5974,7 +5970,7 @@
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>23</v>
@@ -5985,25 +5981,25 @@
     </row>
     <row r="101" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>12</v>
@@ -6021,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>23</v>
@@ -6032,22 +6028,22 @@
     </row>
     <row r="102" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>12</v>
@@ -6065,7 +6061,7 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>23</v>
@@ -6076,22 +6072,22 @@
     </row>
     <row r="103" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -6109,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>23</v>
@@ -6120,22 +6116,22 @@
     </row>
     <row r="104" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>12</v>
@@ -6153,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>23</v>
@@ -6164,22 +6160,22 @@
     </row>
     <row r="105" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -6197,7 +6193,7 @@
         <v>16</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>23</v>
@@ -6208,25 +6204,25 @@
     </row>
     <row r="106" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -6244,7 +6240,7 @@
         <v>16</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
@@ -6255,22 +6251,22 @@
     </row>
     <row r="107" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F107" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -6288,7 +6284,7 @@
         <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>23</v>
@@ -6299,22 +6295,22 @@
     </row>
     <row r="108" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F108" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>12</v>
@@ -6332,7 +6328,7 @@
         <v>16</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>23</v>
@@ -6343,22 +6339,22 @@
     </row>
     <row r="109" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>12</v>
@@ -6376,7 +6372,7 @@
         <v>16</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>23</v>
@@ -6387,22 +6383,22 @@
     </row>
     <row r="110" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>12</v>
@@ -6420,7 +6416,7 @@
         <v>16</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>23</v>
@@ -6431,22 +6427,22 @@
     </row>
     <row r="111" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>12</v>
@@ -6464,7 +6460,7 @@
         <v>16</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>23</v>
@@ -6475,25 +6471,25 @@
     </row>
     <row r="112" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
@@ -6511,7 +6507,7 @@
         <v>16</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>23</v>
@@ -6522,25 +6518,25 @@
     </row>
     <row r="113" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -6558,7 +6554,7 @@
         <v>16</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>23</v>
@@ -6569,25 +6565,25 @@
     </row>
     <row r="114" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>12</v>
@@ -6605,7 +6601,7 @@
         <v>16</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
@@ -6618,25 +6614,25 @@
     </row>
     <row r="115" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -6654,7 +6650,7 @@
         <v>16</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>23</v>
@@ -6665,25 +6661,25 @@
     </row>
     <row r="116" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -6701,7 +6697,7 @@
         <v>16</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>23</v>
@@ -6712,25 +6708,25 @@
     </row>
     <row r="117" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>12</v>
@@ -6748,7 +6744,7 @@
         <v>16</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>23</v>
@@ -6759,25 +6755,25 @@
     </row>
     <row r="118" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>12</v>
@@ -6795,7 +6791,7 @@
         <v>16</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>23</v>
@@ -6806,25 +6802,25 @@
     </row>
     <row r="119" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>12</v>
@@ -6842,7 +6838,7 @@
         <v>16</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>23</v>
@@ -6853,25 +6849,25 @@
     </row>
     <row r="120" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -6889,7 +6885,7 @@
         <v>16</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>23</v>
@@ -6900,25 +6896,25 @@
     </row>
     <row r="121" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>12</v>
@@ -6936,7 +6932,7 @@
         <v>16</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>23</v>
@@ -6947,25 +6943,25 @@
     </row>
     <row r="122" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>12</v>
@@ -6983,7 +6979,7 @@
         <v>16</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>23</v>
@@ -6994,25 +6990,25 @@
     </row>
     <row r="123" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>12</v>
@@ -7030,7 +7026,7 @@
         <v>16</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>23</v>
@@ -7041,25 +7037,25 @@
     </row>
     <row r="124" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -7077,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>23</v>
@@ -7088,25 +7084,25 @@
     </row>
     <row r="125" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -7124,7 +7120,7 @@
         <v>16</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>23</v>
@@ -7135,25 +7131,25 @@
     </row>
     <row r="126" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>12</v>
@@ -7171,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>23</v>
@@ -7182,25 +7178,25 @@
     </row>
     <row r="127" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F127" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>12</v>
@@ -7218,7 +7214,7 @@
         <v>16</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>23</v>
@@ -7229,25 +7225,25 @@
     </row>
     <row r="128" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F128" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>12</v>
@@ -7265,7 +7261,7 @@
         <v>16</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>23</v>
@@ -7276,25 +7272,25 @@
     </row>
     <row r="129" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F129" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
@@ -7312,7 +7308,7 @@
         <v>16</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>23</v>
@@ -7323,25 +7319,25 @@
     </row>
     <row r="130" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F130" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>12</v>
@@ -7359,7 +7355,7 @@
         <v>16</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>23</v>
@@ -7370,25 +7366,25 @@
     </row>
     <row r="131" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>12</v>
@@ -7406,7 +7402,7 @@
         <v>16</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>23</v>
@@ -7417,25 +7413,25 @@
     </row>
     <row r="132" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F132" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>12</v>
@@ -7453,7 +7449,7 @@
         <v>16</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>23</v>
@@ -7464,25 +7460,25 @@
     </row>
     <row r="133" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F133" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>12</v>
@@ -7500,7 +7496,7 @@
         <v>16</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>23</v>
@@ -7511,25 +7507,25 @@
     </row>
     <row r="134" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F134" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -7547,7 +7543,7 @@
         <v>16</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>23</v>
@@ -7558,25 +7554,25 @@
     </row>
     <row r="135" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F135" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>12</v>
@@ -7594,7 +7590,7 @@
         <v>16</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>23</v>
@@ -7605,25 +7601,25 @@
     </row>
     <row r="136" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F136" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -7641,7 +7637,7 @@
         <v>16</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>23</v>
@@ -7652,25 +7648,25 @@
     </row>
     <row r="137" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
@@ -7688,7 +7684,7 @@
         <v>16</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>23</v>
@@ -7699,25 +7695,25 @@
     </row>
     <row r="138" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H138" s="10" t="s">
         <v>12</v>
@@ -7735,7 +7731,7 @@
         <v>16</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
@@ -7748,25 +7744,25 @@
     </row>
     <row r="139" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -7784,7 +7780,7 @@
         <v>16</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>23</v>
@@ -7795,25 +7791,25 @@
     </row>
     <row r="140" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>12</v>
@@ -7831,7 +7827,7 @@
         <v>16</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>23</v>
@@ -7842,25 +7838,25 @@
     </row>
     <row r="141" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>12</v>
@@ -7878,7 +7874,7 @@
         <v>16</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>23</v>
@@ -7889,25 +7885,25 @@
     </row>
     <row r="142" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>12</v>
@@ -7925,7 +7921,7 @@
         <v>16</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>23</v>
@@ -7936,25 +7932,25 @@
     </row>
     <row r="143" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
@@ -7972,7 +7968,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>23</v>
@@ -7983,25 +7979,25 @@
     </row>
     <row r="144" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>12</v>
@@ -8019,7 +8015,7 @@
         <v>16</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>23</v>
@@ -8030,25 +8026,25 @@
     </row>
     <row r="145" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>12</v>
@@ -8066,7 +8062,7 @@
         <v>16</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>23</v>
@@ -8077,25 +8073,25 @@
     </row>
     <row r="146" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>12</v>
@@ -8113,7 +8109,7 @@
         <v>16</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>23</v>
@@ -8124,25 +8120,25 @@
     </row>
     <row r="147" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>12</v>
@@ -8160,7 +8156,7 @@
         <v>16</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>23</v>
@@ -8171,25 +8167,25 @@
     </row>
     <row r="148" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -8207,7 +8203,7 @@
         <v>16</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>23</v>
@@ -8218,25 +8214,25 @@
     </row>
     <row r="149" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -8254,7 +8250,7 @@
         <v>16</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>23</v>
@@ -8265,25 +8261,25 @@
     </row>
     <row r="150" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>12</v>
@@ -8301,7 +8297,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>23</v>
@@ -8312,25 +8308,25 @@
     </row>
     <row r="151" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E151" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F151" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>12</v>
@@ -8348,7 +8344,7 @@
         <v>16</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>23</v>
@@ -8359,25 +8355,25 @@
     </row>
     <row r="152" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F152" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>12</v>
@@ -8395,7 +8391,7 @@
         <v>16</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>23</v>
@@ -8406,25 +8402,25 @@
     </row>
     <row r="153" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F153" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>12</v>
@@ -8442,7 +8438,7 @@
         <v>16</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>23</v>
@@ -8453,25 +8449,25 @@
     </row>
     <row r="154" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F154" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>12</v>
@@ -8489,7 +8485,7 @@
         <v>16</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P154" s="3" t="s">
         <v>23</v>
@@ -8500,25 +8496,25 @@
     </row>
     <row r="155" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F155" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>12</v>
@@ -8536,7 +8532,7 @@
         <v>16</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P155" s="3" t="s">
         <v>23</v>
@@ -8547,25 +8543,25 @@
     </row>
     <row r="156" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F156" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>12</v>
@@ -8583,7 +8579,7 @@
         <v>16</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>23</v>
@@ -8594,25 +8590,25 @@
     </row>
     <row r="157" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>12</v>
@@ -8630,7 +8626,7 @@
         <v>16</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>23</v>
@@ -8641,25 +8637,25 @@
     </row>
     <row r="158" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F158" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>12</v>
@@ -8677,7 +8673,7 @@
         <v>16</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>23</v>
@@ -8688,25 +8684,25 @@
     </row>
     <row r="159" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F159" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>12</v>
@@ -8724,7 +8720,7 @@
         <v>16</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>23</v>
@@ -8735,25 +8731,25 @@
     </row>
     <row r="160" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>12</v>
@@ -8771,7 +8767,7 @@
         <v>16</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P160" s="3" t="s">
         <v>23</v>
@@ -8782,25 +8778,25 @@
     </row>
     <row r="161" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>12</v>
@@ -8818,7 +8814,7 @@
         <v>16</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>23</v>
@@ -8829,25 +8825,25 @@
     </row>
     <row r="162" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F162" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>12</v>
@@ -8865,7 +8861,7 @@
         <v>16</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
